--- a/xlsx/外交部_intext.xlsx
+++ b/xlsx/外交部_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_外交部</t>
+    <t>主权国家</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%9C%BA%E5%85%B3</t>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>行政長官</t>
+    <t>行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
   </si>
   <si>
-    <t>內閣制</t>
+    <t>内阁制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>英國外交部</t>
+    <t>英国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國海外領地</t>
+    <t>英国海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>大英國協</t>
+    <t>大英国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%8F%8A%E8%81%AF%E9%82%A6%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>外交及聯邦事務部</t>
+    <t>外交及联邦事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>美國國務卿</t>
+    <t>美国国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8%E9%95%BF</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%8F%8A%E8%81%AF%E9%82%A6%E4%BA%8B%E5%8B%99%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>外交及聯邦事務大臣</t>
+    <t>外交及联邦事务大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Secretary_of_Foreign_Affairs_(Philippines)</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>國防部長</t>
+    <t>国防部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>國家安全會議</t>
+    <t>国家安全会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B9%9D%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十九世紀</t>
+    <t>十九世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>二十世紀</t>
+    <t>二十世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8</t>
   </si>
   <si>
-    <t>兩岸</t>
+    <t>两岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E9%99%A2%E9%95%B7</t>
   </si>
   <si>
-    <t>行政院院長</t>
+    <t>行政院院长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>亞美尼亞外交部</t>
+    <t>亚美尼亚外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國外交部</t>
+    <t>中华人民共和国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>法國外交部</t>
+    <t>法国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>德國外交部</t>
+    <t>德国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>教廷國務院</t>
+    <t>教廷国务院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -305,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8B%99%E7%9C%81_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>外務省 (日本)</t>
+    <t>外务省 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>大韓民國外交部</t>
+    <t>大韩民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%A4%96%E5%8B%99%E7%9C%81</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國外務省</t>
+    <t>朝鲜民主主义人民共和国外务省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>荷蘭外交部</t>
+    <t>荷兰外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%A4%96%E4%BA%A4%E9%83%A8</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國務院</t>
+    <t>美国国务院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E4%BB%A3%E8%A1%A8%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>外交代表機構</t>
+    <t>外交代表机构</t>
   </si>
 </sst>
 </file>
